--- a/Boom/Excel/Multi_Language.xlsx
+++ b/Boom/Excel/Multi_Language.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>English</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,186 @@
       </rPr>
       <t>게임</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full Screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Borderless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无边框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音頻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全螢幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無邊框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オーディオ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メインボリューム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFXボリューム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解像度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フルスクリーン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ボーダーレス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ウィンドウモード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 볼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX 볼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스플레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해상도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경계선 없는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈도우 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main Volume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,62 +805,158 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Boom/Excel/Multi_Language.xlsx
+++ b/Boom/Excel/Multi_Language.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="1680" windowWidth="24990" windowHeight="11745"/>
+    <workbookView xWindow="10245" yWindow="1680" windowWidth="24990" windowHeight="11745" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="5" r:id="rId1"/>
+    <sheet name="RoleDes" sheetId="9" r:id="rId2"/>
+    <sheet name="Attri" sheetId="8" r:id="rId3"/>
+    <sheet name="ZodiacSign" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="182">
   <si>
     <t>English</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +337,530 @@
   </si>
   <si>
     <t>Main Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zodiac sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taurus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白羊座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双子座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨蟹座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处女座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天秤座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorpio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天蝎座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sagittarius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射手座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capricorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩羯座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aquarius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水瓶座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pisces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双鱼座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙子座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨蟹座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獅子座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>處女座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天蠍座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射手座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔羯座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水瓶座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙魚座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おひつじ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おうし座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふたご座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かに座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しし座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おとめ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てんびん座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さそり座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いて座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やぎ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みずがめ座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うお座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황소자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍둥이자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사자자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처녀자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천칭자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전갈자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사수자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염소자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물병자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色選擇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロール選択</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血液型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈액형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿Begin!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penetration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備用位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>予備の場所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예비 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ダメージ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素タイプ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要素値</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貫通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원소 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원소 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quiet and peaceful, cute and adorable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安安静静，可可爱爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安安靜靜，可可愛愛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조용히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조용히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>귀여워</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>귀여워</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静かに静かに，とても愛らしい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -957,15 +1484,580 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="21.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Boom/Excel/Multi_Language.xlsx
+++ b/Boom/Excel/Multi_Language.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="1680" windowWidth="24990" windowHeight="11745" activeTab="1"/>
+    <workbookView xWindow="10245" yWindow="1680" windowWidth="24990" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="5" r:id="rId1"/>
@@ -629,26 +629,6 @@
   </si>
   <si>
     <t>별자리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿Begin!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開始！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開始！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -862,6 +842,25 @@
   <si>
     <t>静かに静かに，とても愛らしい</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin</t>
   </si>
 </sst>
 </file>
@@ -1237,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1503,19 +1502,19 @@
     </row>
     <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1598,7 +1597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1626,19 +1625,19 @@
     </row>
     <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1680,104 +1679,104 @@
     </row>
     <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1826,7 +1825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/Boom/Excel/Multi_Language.xlsx
+++ b/Boom/Excel/Multi_Language.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyLGame\Boom\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB45C850-AA02-4672-B91A-2DEB7FABCC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="1680" windowWidth="24990" windowHeight="11745"/>
+    <workbookView xWindow="11330" yWindow="8510" windowWidth="18520" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="5" r:id="rId1"/>
@@ -866,7 +867,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1233,19 +1234,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="23.125" customWidth="1"/>
+    <col min="1" max="5" width="23.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>69</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1398,7 +1399,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>70</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>181</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>132</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
@@ -1551,35 +1552,35 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1594,19 +1595,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -1648,19 +1649,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="21.375" customWidth="1"/>
+    <col min="1" max="5" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>143</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>144</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>145</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>146</v>
       </c>
@@ -1745,7 +1746,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>147</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
@@ -1779,35 +1780,35 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1822,19 +1823,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="18.875" customWidth="1"/>
+    <col min="1" max="5" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>82</v>
       </c>
@@ -1953,7 +1954,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>88</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>90</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -2038,7 +2039,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>94</v>
       </c>
